--- a/tabelas/tempo_medio.xlsx
+++ b/tabelas/tempo_medio.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2.96003723561873</v>
       </c>
       <c r="C2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>9.300000000000001</v>
+        <v>9.429369046610425</v>
       </c>
       <c r="C3">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>13.7</v>
+        <v>14.56011728198881</v>
       </c>
       <c r="C4">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5">
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>21.5</v>
+        <v>21.82594478729064</v>
       </c>
       <c r="C5">
-        <v>1893</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="6">
@@ -433,10 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>8.904417520384921</v>
       </c>
       <c r="C6">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7">
@@ -446,10 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>5.1</v>
+        <v>5.10090292975746</v>
       </c>
       <c r="C7">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>14.2</v>
+        <v>14.48568914934321</v>
       </c>
       <c r="C8">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>17.1</v>
+        <v>17.13039756909481</v>
       </c>
       <c r="C9">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>9.6</v>
+        <v>9.548460250381144</v>
       </c>
       <c r="C10">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>16.00304720911434</v>
       </c>
       <c r="C11">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>9.9</v>
+        <v>9.77989076634238</v>
       </c>
       <c r="C12">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>15.6</v>
+        <v>15.94457506269907</v>
       </c>
       <c r="C13">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>11.8</v>
+        <v>12.38355775251952</v>
       </c>
       <c r="C14">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
